--- a/src/main/resources/script/db/2018-5-3-devops.xlsx
+++ b/src/main/resources/script/db/2018-5-3-devops.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="devops_app_template" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="devops_user" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="LOCAL_MYSQL_DATE_FORMAT" vbProcedure="false">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">devops_app_template</t>
   </si>
@@ -94,12 +93,6 @@
 </t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">devops_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitlab_user_id</t>
-  </si>
 </sst>
 </file>
 
@@ -259,9 +252,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.0042918454936"/>
-    <col collapsed="false" hidden="false" max="1011" min="2" style="0" width="18.1673819742489"/>
-    <col collapsed="false" hidden="false" max="1025" min="1012" style="0" width="23.5064377682403"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1802575107296"/>
+    <col collapsed="false" hidden="false" max="1011" min="2" style="0" width="20.6652360515021"/>
+    <col collapsed="false" hidden="false" max="1025" min="1012" style="0" width="26.7982832618026"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -281,20 +274,20 @@
   </sheetPr>
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="18.1673819742489"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="104.017167381974"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="171.467811158798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="117.643776824034"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.875536480687"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="96.9742489270386"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="123.321888412017"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="18.1673819742489"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="20.6652360515021"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="119.004291845494"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="196.223175965665"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="134.562231759657"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="129.111587982833"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="110.944206008584"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="141.150214592275"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="20.6652360515021"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,54 +386,4 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D7:F8"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.0128755364807"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.3218884120172"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0128755364807"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="142.510729613734"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.0128755364807"/>
-  </cols>
-  <sheetData>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>